--- a/Impact/impact_2.xlsx
+++ b/Impact/impact_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Investment</t>
   </si>
@@ -100,7 +100,28 @@
     <t>kha</t>
   </si>
   <si>
-    <t>single</t>
+    <t>Shading Trees</t>
+  </si>
+  <si>
+    <t>Banana yield</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -458,198 +479,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
         <v>1.000000158324838</v>
       </c>
-      <c r="C4">
-        <v>0.9354393007233739</v>
+      <c r="E4">
+        <v>15.05941006913781</v>
       </c>
       <c r="F4">
-        <v>0.04106397050782107</v>
+        <v>15.05940768485953</v>
       </c>
       <c r="G4">
-        <v>0.05008577914486523</v>
+        <v>0.06640367409704849</v>
       </c>
       <c r="H4">
-        <v>0.003466384087914776</v>
+        <v>0.6398286656331038</v>
       </c>
       <c r="I4">
-        <v>0.08160151727497578</v>
+        <v>0.0113977126275131</v>
       </c>
       <c r="J4">
-        <v>0.07793689612299204</v>
+        <v>0.05449149692958599</v>
       </c>
       <c r="K4">
-        <v>0.06345285149291158</v>
+        <v>1.269799678120762</v>
       </c>
       <c r="L4">
+        <v>1.187678440939635</v>
+      </c>
+      <c r="M4">
+        <v>1.518190041184425</v>
+      </c>
+      <c r="N4">
         <v>0.0005181713204365224</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.0009185673316096654</v>
       </c>
-      <c r="N4">
-        <v>1.404879185429309e-06</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
+        <v>1.404879185429309E-06</v>
+      </c>
+      <c r="Q4">
         <v>0.06491394690237939</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.09720575390383601</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.00409148377366364</v>
+      </c>
+      <c r="T4">
+        <v>-12.79605514134164</v>
+      </c>
+      <c r="U4">
+        <v>-0.2270356852186524</v>
+      </c>
+      <c r="V4">
+        <v>-1.089828533712534</v>
+      </c>
+      <c r="W4">
+        <v>-25.33107961551286</v>
+      </c>
+      <c r="X4">
+        <v>-30.26659506978467</v>
+      </c>
+      <c r="Y4">
+        <v>-23.74947733501904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>1.000000158324838</v>
+      </c>
+      <c r="E5">
+        <v>16.06583239417523</v>
+      </c>
+      <c r="F5">
+        <v>16.06582985055533</v>
+      </c>
+      <c r="G5">
+        <v>0.06224390581140346</v>
+      </c>
+      <c r="H5">
+        <v>0.6825969249475747</v>
+      </c>
+      <c r="I5">
+        <v>0.01215931509796064</v>
+      </c>
+      <c r="J5">
+        <v>0.058136092670793</v>
+      </c>
+      <c r="K5">
+        <v>1.354669690597802</v>
+      </c>
+      <c r="L5">
+        <v>1.266944493865594</v>
+      </c>
+      <c r="M5">
+        <v>1.619680810719728</v>
+      </c>
+      <c r="N5">
+        <v>0.0005181713204365224</v>
+      </c>
+      <c r="O5">
+        <v>0.0009185673316096654</v>
+      </c>
+      <c r="P5">
+        <v>1.404879185429309E-06</v>
+      </c>
+      <c r="Q5">
+        <v>0.06491394690237939</v>
+      </c>
+      <c r="R5">
+        <v>0.09720575390383601</v>
+      </c>
+      <c r="S5">
+        <v>0.00409148377366364</v>
+      </c>
+      <c r="T5">
+        <v>-13.65142032763106</v>
+      </c>
+      <c r="U5">
+        <v>-0.2422677346276032</v>
+      </c>
+      <c r="V5">
+        <v>-1.162720448536675</v>
+      </c>
+      <c r="W5">
+        <v>-27.02847986505367</v>
+      </c>
+      <c r="X5">
+        <v>-32.29641046049073</v>
+      </c>
+      <c r="Y5">
+        <v>-25.33479839353822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1.000000158324838</v>
+      </c>
+      <c r="E6">
+        <v>17.07225268799812</v>
+      </c>
+      <c r="F6">
+        <v>17.07224998503691</v>
+      </c>
+      <c r="G6">
+        <v>0.05857458746658799</v>
+      </c>
+      <c r="H6">
+        <v>0.7253650979255326</v>
+      </c>
+      <c r="I6">
+        <v>0.01292091603318113</v>
+      </c>
+      <c r="J6">
+        <v>0.06178068105509738</v>
+      </c>
+      <c r="K6">
+        <v>1.439539531245828</v>
+      </c>
+      <c r="L6">
+        <v>1.346210386836901</v>
+      </c>
+      <c r="M6">
+        <v>1.721171375364065</v>
+      </c>
+      <c r="N6">
+        <v>0.0005181713204365224</v>
+      </c>
+      <c r="O6">
+        <v>0.0009185673316096654</v>
+      </c>
+      <c r="P6">
+        <v>1.404879185429309E-06</v>
+      </c>
+      <c r="Q6">
+        <v>0.06491394690237939</v>
+      </c>
+      <c r="R6">
+        <v>0.09720575390383601</v>
+      </c>
+      <c r="S6">
+        <v>0.00409148377366364</v>
+      </c>
+      <c r="T6">
+        <v>-14.50678378719022</v>
+      </c>
+      <c r="U6">
+        <v>-0.2574997533320129</v>
+      </c>
+      <c r="V6">
+        <v>-1.235612216222762</v>
+      </c>
+      <c r="W6">
+        <v>-28.72587667801417</v>
+      </c>
+      <c r="X6">
+        <v>-34.32622175337747</v>
+      </c>
+      <c r="Y6">
+        <v>-26.92011625296436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1.000000158324838</v>
+      </c>
+      <c r="E7">
+        <v>18.07867095060647</v>
+      </c>
+      <c r="F7">
+        <v>18.07866808830428</v>
+      </c>
+      <c r="G7">
+        <v>0.05531380935340779</v>
+      </c>
+      <c r="H7">
+        <v>0.7681331846106332</v>
+      </c>
+      <c r="I7">
+        <v>0.01368251543681254</v>
+      </c>
+      <c r="J7">
+        <v>0.0654252620824991</v>
+      </c>
+      <c r="K7">
+        <v>1.524409200996161</v>
+      </c>
+      <c r="L7">
+        <v>1.425476119853556</v>
+      </c>
+      <c r="M7">
+        <v>1.822661735117435</v>
+      </c>
+      <c r="N7">
+        <v>0.0005181713204365224</v>
+      </c>
+      <c r="O7">
+        <v>0.0009185673316096654</v>
+      </c>
+      <c r="P7">
+        <v>1.404879185429309E-06</v>
+      </c>
+      <c r="Q7">
+        <v>0.06491394690237939</v>
+      </c>
+      <c r="R7">
+        <v>0.09720575390383601</v>
+      </c>
+      <c r="S7">
+        <v>0.00409148377366364</v>
+      </c>
+      <c r="T7">
+        <v>-15.36214552089223</v>
+      </c>
+      <c r="U7">
+        <v>-0.2727317414046411</v>
+      </c>
+      <c r="V7">
+        <v>-1.308503836770797</v>
+      </c>
+      <c r="W7">
+        <v>-30.42327007302083</v>
+      </c>
+      <c r="X7">
+        <v>-36.35602894844487</v>
+      </c>
+      <c r="Y7">
+        <v>-28.50543091329746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1.000000158324838</v>
+      </c>
+      <c r="E8">
+        <v>19.08508718200028</v>
+      </c>
+      <c r="F8">
+        <v>19.08508416035743</v>
+      </c>
+      <c r="G8">
+        <v>0.05239693949462111</v>
+      </c>
+      <c r="H8">
+        <v>0.810901184915565</v>
+      </c>
+      <c r="I8">
+        <v>0.01444411330157891</v>
+      </c>
+      <c r="J8">
+        <v>0.06906983575390768</v>
+      </c>
+      <c r="K8">
+        <v>1.60927869938314</v>
+      </c>
+      <c r="L8">
+        <v>1.504741693614051</v>
+      </c>
+      <c r="M8">
+        <v>1.924151889979839</v>
+      </c>
+      <c r="N8">
+        <v>0.0005181713204365224</v>
+      </c>
+      <c r="O8">
+        <v>0.0009185673316096654</v>
+      </c>
+      <c r="P8">
+        <v>1.404879185429309E-06</v>
+      </c>
+      <c r="Q8">
+        <v>0.06491394690237939</v>
+      </c>
+      <c r="R8">
+        <v>0.09720575390383601</v>
+      </c>
+      <c r="S8">
+        <v>0.00409148377366364</v>
+      </c>
+      <c r="T8">
+        <v>-16.21750552699086</v>
+      </c>
+      <c r="U8">
+        <v>-0.2879636986999685</v>
+      </c>
+      <c r="V8">
+        <v>-1.381395310198968</v>
+      </c>
+      <c r="W8">
+        <v>-32.12066004076041</v>
+      </c>
+      <c r="X8">
+        <v>-38.38583204569295</v>
+      </c>
+      <c r="Y8">
+        <v>-30.09074238850735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>1.000000158324838</v>
+      </c>
+      <c r="E9">
+        <v>20.09150138031691</v>
+      </c>
+      <c r="F9">
+        <v>20.09149819933372</v>
+      </c>
+      <c r="G9">
+        <v>0.04977229622593114</v>
+      </c>
+      <c r="H9">
+        <v>0.8536690989421913</v>
+      </c>
+      <c r="I9">
+        <v>0.01520570962748025</v>
+      </c>
+      <c r="J9">
+        <v>0.07271440206841362</v>
+      </c>
+      <c r="K9">
+        <v>1.694148026639596</v>
+      </c>
+      <c r="L9">
+        <v>1.584007106488571</v>
+      </c>
+      <c r="M9">
+        <v>2.025641840416938</v>
+      </c>
+      <c r="N9">
+        <v>0.0005181713204365224</v>
+      </c>
+      <c r="O9">
+        <v>0.0009185673316096654</v>
+      </c>
+      <c r="P9">
+        <v>1.404879185429309E-06</v>
+      </c>
+      <c r="Q9">
+        <v>0.06491394690237939</v>
+      </c>
+      <c r="R9">
+        <v>0.09720575390383601</v>
+      </c>
+      <c r="S9">
+        <v>0.00409148377366364</v>
+      </c>
+      <c r="T9">
+        <v>-17.07286380752339</v>
+      </c>
+      <c r="U9">
+        <v>-0.3031956252179953</v>
+      </c>
+      <c r="V9">
+        <v>-1.454286636489087</v>
+      </c>
+      <c r="W9">
+        <v>-33.81804658588953</v>
+      </c>
+      <c r="X9">
+        <v>-40.41563105443493</v>
+      </c>
+      <c r="Y9">
+        <v>-31.67605064599775</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Impact/impact_2.xlsx
+++ b/Impact/impact_2.xlsx
@@ -637,31 +637,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E4">
-        <v>15.05941006913781</v>
+        <v>0.6446222355589271</v>
       </c>
       <c r="F4">
-        <v>15.05940768485953</v>
+        <v>0.6446221334992324</v>
       </c>
       <c r="G4">
-        <v>0.06640367409704849</v>
+        <v>1.551296407667005</v>
       </c>
       <c r="H4">
-        <v>0.6398286656331038</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="I4">
-        <v>0.0113977126275131</v>
+        <v>0.0004894310477538966</v>
       </c>
       <c r="J4">
-        <v>0.05449149692958599</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="K4">
-        <v>1.269799678120762</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="L4">
-        <v>1.187678440939635</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M4">
-        <v>1.518190041184425</v>
+        <v>0.06455782894045115</v>
       </c>
       <c r="N4">
         <v>0.0005181713204365224</v>
@@ -670,7 +670,7 @@
         <v>0.0009185673316096654</v>
       </c>
       <c r="P4">
-        <v>1.404879185429309E-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q4">
         <v>0.06491394690237939</v>
@@ -682,22 +682,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="T4">
-        <v>-12.79605514134164</v>
+        <v>-0.5448288190818857</v>
       </c>
       <c r="U4">
-        <v>-0.2270356852186524</v>
+        <v>-0.008870053623468266</v>
       </c>
       <c r="V4">
-        <v>-1.089828533712534</v>
+        <v>-0.04581206010607275</v>
       </c>
       <c r="W4">
-        <v>-25.33107961551286</v>
+        <v>-1.019551726290956</v>
       </c>
       <c r="X4">
-        <v>-30.26659506978467</v>
+        <v>-1.193950824905187</v>
       </c>
       <c r="Y4">
-        <v>-23.74947733501904</v>
+        <v>-1.043237413046882</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -710,31 +710,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E5">
-        <v>16.06583239417523</v>
+        <v>0.690074922516942</v>
       </c>
       <c r="F5">
-        <v>16.06582985055533</v>
+        <v>0.6900748132609592</v>
       </c>
       <c r="G5">
-        <v>0.06224390581140346</v>
+        <v>1.449118241650473</v>
       </c>
       <c r="H5">
-        <v>0.6825969249475747</v>
+        <v>0.02919887700409163</v>
       </c>
       <c r="I5">
-        <v>0.01215931509796064</v>
+        <v>0.0005238270186964655</v>
       </c>
       <c r="J5">
-        <v>0.058136092670793</v>
+        <v>0.002455272810948372</v>
       </c>
       <c r="K5">
-        <v>1.354669690597802</v>
+        <v>0.05805623717606068</v>
       </c>
       <c r="L5">
-        <v>1.266944493865594</v>
+        <v>0.05594630865380168</v>
       </c>
       <c r="M5">
-        <v>1.619680810719728</v>
+        <v>0.06914142007008195</v>
       </c>
       <c r="N5">
         <v>0.0005181713204365224</v>
@@ -743,7 +743,7 @@
         <v>0.0009185673316096654</v>
       </c>
       <c r="P5">
-        <v>1.404879185429309E-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q5">
         <v>0.06491394690237939</v>
@@ -755,22 +755,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="T5">
-        <v>-13.65142032763106</v>
+        <v>-0.583459368761396</v>
       </c>
       <c r="U5">
-        <v>-0.2422677346276032</v>
+        <v>-0.009557973042319645</v>
       </c>
       <c r="V5">
-        <v>-1.162720448536675</v>
+        <v>-0.04910405133978202</v>
       </c>
       <c r="W5">
-        <v>-27.02847986505367</v>
+        <v>-1.096210796618834</v>
       </c>
       <c r="X5">
-        <v>-32.29641046049073</v>
+        <v>-1.285622647497803</v>
       </c>
       <c r="Y5">
-        <v>-25.33479839353822</v>
+        <v>-1.11483468930237</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -783,31 +783,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E6">
-        <v>17.07225268799812</v>
+        <v>0.7355276076123118</v>
       </c>
       <c r="F6">
-        <v>17.07224998503691</v>
+        <v>0.7355274911600412</v>
       </c>
       <c r="G6">
-        <v>0.05857458746658799</v>
+        <v>1.359568489306694</v>
       </c>
       <c r="H6">
-        <v>0.7253650979255326</v>
+        <v>0.03113040426978841</v>
       </c>
       <c r="I6">
-        <v>0.01292091603318113</v>
+        <v>0.0005582230005529709</v>
       </c>
       <c r="J6">
-        <v>0.06178068105509738</v>
+        <v>0.00261987235990091</v>
       </c>
       <c r="K6">
-        <v>1.439539531245828</v>
+        <v>0.06188919092528522</v>
       </c>
       <c r="L6">
-        <v>1.346210386836901</v>
+        <v>0.05952617269940674</v>
       </c>
       <c r="M6">
-        <v>1.721171375364065</v>
+        <v>0.07372501073405147</v>
       </c>
       <c r="N6">
         <v>0.0005181713204365224</v>
@@ -816,7 +816,7 @@
         <v>0.0009185673316096654</v>
       </c>
       <c r="P6">
-        <v>1.404879185429309E-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q6">
         <v>0.06491394690237939</v>
@@ -828,22 +828,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="T6">
-        <v>-14.50678378719022</v>
+        <v>-0.6220899140753318</v>
       </c>
       <c r="U6">
-        <v>-0.2574997533320129</v>
+        <v>-0.01024589267944975</v>
       </c>
       <c r="V6">
-        <v>-1.235612216222762</v>
+        <v>-0.05239604231883277</v>
       </c>
       <c r="W6">
-        <v>-28.72587667801417</v>
+        <v>-1.172869871603325</v>
       </c>
       <c r="X6">
-        <v>-34.32622175337747</v>
+        <v>-1.377294460777193</v>
       </c>
       <c r="Y6">
-        <v>-26.92011625296436</v>
+        <v>-1.186431970214471</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -856,31 +856,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E7">
-        <v>18.07867095060647</v>
+        <v>0.7809802889823914</v>
       </c>
       <c r="F7">
-        <v>18.07866808830428</v>
+        <v>0.7809801653338334</v>
       </c>
       <c r="G7">
-        <v>0.05531380935340779</v>
+        <v>1.280442249865009</v>
       </c>
       <c r="H7">
-        <v>0.7681331846106332</v>
+        <v>0.03306193143362179</v>
       </c>
       <c r="I7">
-        <v>0.01368251543681254</v>
+        <v>0.0005926189769525081</v>
       </c>
       <c r="J7">
-        <v>0.0654252620824991</v>
+        <v>0.002784471894301532</v>
       </c>
       <c r="K7">
-        <v>1.524409200996161</v>
+        <v>0.06572214374318719</v>
       </c>
       <c r="L7">
-        <v>1.425476119853556</v>
+        <v>0.06310603651218116</v>
       </c>
       <c r="M7">
-        <v>1.822661735117435</v>
+        <v>0.0783086009323597</v>
       </c>
       <c r="N7">
         <v>0.0005181713204365224</v>
@@ -889,7 +889,7 @@
         <v>0.0009185673316096654</v>
       </c>
       <c r="P7">
-        <v>1.404879185429309E-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q7">
         <v>0.06491394690237939</v>
@@ -901,22 +901,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="T7">
-        <v>-15.36214552089223</v>
+        <v>-0.6607204573519994</v>
       </c>
       <c r="U7">
-        <v>-0.2727317414046411</v>
+        <v>-0.0109338122074405</v>
       </c>
       <c r="V7">
-        <v>-1.308503836770797</v>
+        <v>-0.05568803300684522</v>
       </c>
       <c r="W7">
-        <v>-30.42327007302083</v>
+        <v>-1.249528927961364</v>
       </c>
       <c r="X7">
-        <v>-36.35602894844487</v>
+        <v>-1.468966264743358</v>
       </c>
       <c r="Y7">
-        <v>-28.50543091329746</v>
+        <v>-1.25802924646996</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -929,31 +929,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E8">
-        <v>19.08508718200028</v>
+        <v>0.8264329647645354</v>
       </c>
       <c r="F8">
-        <v>19.08508416035743</v>
+        <v>0.8264328339196911</v>
       </c>
       <c r="G8">
-        <v>0.05239693949462111</v>
+        <v>1.210019688178526</v>
       </c>
       <c r="H8">
-        <v>0.810901184915565</v>
+        <v>0.03499345836462453</v>
       </c>
       <c r="I8">
-        <v>0.01444411330157891</v>
+        <v>0.0006270149424381088</v>
       </c>
       <c r="J8">
-        <v>0.06906983575390768</v>
+        <v>0.00294907141233125</v>
       </c>
       <c r="K8">
-        <v>1.60927869938314</v>
+        <v>0.06955509656108916</v>
       </c>
       <c r="L8">
-        <v>1.504741693614051</v>
+        <v>0.06668589939363301</v>
       </c>
       <c r="M8">
-        <v>1.924151889979839</v>
+        <v>0.08289219066500664</v>
       </c>
       <c r="N8">
         <v>0.0005181713204365224</v>
@@ -962,7 +962,7 @@
         <v>0.0009185673316096654</v>
       </c>
       <c r="P8">
-        <v>1.404879185429309E-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q8">
         <v>0.06491394690237939</v>
@@ -974,22 +974,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="T8">
-        <v>-16.21750552699086</v>
+        <v>-0.6993509959720541</v>
       </c>
       <c r="U8">
-        <v>-0.2879636986999685</v>
+        <v>-0.01162173151715251</v>
       </c>
       <c r="V8">
-        <v>-1.381395310198968</v>
+        <v>-0.05898002336743957</v>
       </c>
       <c r="W8">
-        <v>-32.12066004076041</v>
+        <v>-1.326187984319404</v>
       </c>
       <c r="X8">
-        <v>-38.38583204569295</v>
+        <v>-1.560638059396297</v>
       </c>
       <c r="Y8">
-        <v>-30.09074238850735</v>
+        <v>-1.329626504098997</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1002,31 +1002,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E9">
-        <v>20.09150138031691</v>
+        <v>0.8718856377527118</v>
       </c>
       <c r="F9">
-        <v>20.09149819933372</v>
+        <v>0.8718854997115816</v>
       </c>
       <c r="G9">
-        <v>0.04977229622593114</v>
+        <v>1.146939592791483</v>
       </c>
       <c r="H9">
-        <v>0.8536690989421913</v>
+        <v>0.0369249851355562</v>
       </c>
       <c r="I9">
-        <v>0.01520570962748025</v>
+        <v>0.0006614109079237096</v>
       </c>
       <c r="J9">
-        <v>0.07271440206841362</v>
+        <v>0.003113670916718547</v>
       </c>
       <c r="K9">
-        <v>1.694148026639596</v>
+        <v>0.07338804891332984</v>
       </c>
       <c r="L9">
-        <v>1.584007106488571</v>
+        <v>0.07026576227508485</v>
       </c>
       <c r="M9">
-        <v>2.025641840416938</v>
+        <v>0.08747577993199229</v>
       </c>
       <c r="N9">
         <v>0.0005181713204365224</v>
@@ -1035,7 +1035,7 @@
         <v>0.0009185673316096654</v>
       </c>
       <c r="P9">
-        <v>1.404879185429309E-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q9">
         <v>0.06491394690237939</v>
@@ -1047,22 +1047,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="T9">
-        <v>-17.07286380752339</v>
+        <v>-0.7379815313906875</v>
       </c>
       <c r="U9">
-        <v>-0.3031956252179953</v>
+        <v>-0.01230965082686453</v>
       </c>
       <c r="V9">
-        <v>-1.454286636489087</v>
+        <v>-0.06227201345518552</v>
       </c>
       <c r="W9">
-        <v>-33.81804658588953</v>
+        <v>-1.402847031364217</v>
       </c>
       <c r="X9">
-        <v>-40.41563105443493</v>
+        <v>-1.65230984473601</v>
       </c>
       <c r="Y9">
-        <v>-31.67605064599775</v>
+        <v>-1.401223761728033</v>
       </c>
     </row>
   </sheetData>
